--- a/pin.xlsx
+++ b/pin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27451\Desktop\lqb\lora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC5ACA-90CF-43A9-AB10-E3F4E94595EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CDC96-9867-4286-95D5-3ABC8992A038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>PC15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,34 @@
   </si>
   <si>
     <t>按下高电平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低电平触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,6 +431,33 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pin.xlsx
+++ b/pin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27451\Desktop\lqb\lora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CDC96-9867-4286-95D5-3ABC8992A038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AD40B5-12D8-48E9-BAF2-F7662D7F5C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按下高电平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PA8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,10 @@
   </si>
   <si>
     <t>低电平触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下低电平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,34 +428,34 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/pin.xlsx
+++ b/pin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27451\Desktop\lqb\lora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AD40B5-12D8-48E9-BAF2-F7662D7F5C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452852E0-8F1B-4E70-B667-FF92CB9ECD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>PC15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,26 @@
   </si>
   <si>
     <t>按下低电平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULN2803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2 LED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1 LED1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,6 +478,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pin.xlsx
+++ b/pin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27451\Desktop\lqb\lora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27451\Desktop\lqb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452852E0-8F1B-4E70-B667-FF92CB9ECD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCAD9E8-7E27-4FB6-8557-714FB09602C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>PC15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,94 @@
   </si>
   <si>
     <t>K1 LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电位器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下导通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LORA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8 PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,15 +509,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +531,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -450,24 +545,62 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -478,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -488,8 +621,20 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -498,6 +643,78 @@
       </c>
       <c r="C9" t="s">
         <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
